--- a/data/judges_with_posters.xlsx
+++ b/data/judges_with_posters.xlsx
@@ -513,13 +513,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -548,14 +548,12 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>68</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -583,13 +581,13 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -620,21 +618,23 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J5" t="n">
-        <v>34</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -659,12 +659,14 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="H6" t="n">
+        <v>34</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -694,23 +696,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="J7" t="n">
-        <v>42</v>
-      </c>
-      <c r="K7" t="n">
-        <v>50</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -735,12 +735,14 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
+        <v>65</v>
+      </c>
+      <c r="H8" t="n">
         <v>36</v>
       </c>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -768,12 +770,14 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>28</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="H9" t="n">
+        <v>40</v>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -803,19 +807,23 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
+        <v>23</v>
+      </c>
+      <c r="I10" t="n">
         <v>16</v>
       </c>
-      <c r="I10" t="n">
-        <v>54</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>48</v>
+      </c>
+      <c r="K10" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -842,21 +850,23 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>52</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>61</v>
+      </c>
+      <c r="K11" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -881,13 +891,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H12" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -916,13 +926,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H13" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -951,12 +961,14 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>19</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>46</v>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -984,10 +996,10 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G15" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1017,14 +1029,12 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G16" t="n">
-        <v>35</v>
-      </c>
-      <c r="H16" t="n">
-        <v>39</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1052,10 +1062,10 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1085,12 +1095,14 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G18" t="n">
-        <v>45</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
+        <v>32</v>
+      </c>
+      <c r="H18" t="n">
+        <v>42</v>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1118,10 +1130,10 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G19" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1151,14 +1163,12 @@
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>61</v>
-      </c>
-      <c r="H20" t="n">
-        <v>66</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1186,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1221,13 +1231,13 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H22" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1258,18 +1268,20 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H23" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I23" t="n">
-        <v>66</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>54</v>
+      </c>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1297,19 +1309,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I24" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="J24" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K24" t="inlineStr"/>
     </row>
@@ -1338,19 +1350,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G25" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H25" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="J25" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K25" t="inlineStr"/>
     </row>
@@ -1379,19 +1391,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I26" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K26" t="inlineStr"/>
     </row>
@@ -1418,10 +1430,10 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G27" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1451,10 +1463,10 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G28" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1484,10 +1496,10 @@
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1517,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1552,19 +1564,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G31" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H31" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="J31" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K31" t="inlineStr"/>
     </row>
@@ -1593,19 +1605,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G32" t="n">
         <v>51</v>
       </c>
       <c r="H32" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I32" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J32" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K32" t="inlineStr"/>
     </row>
@@ -1632,10 +1644,10 @@
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G33" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1665,14 +1677,12 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G34" t="n">
-        <v>41</v>
-      </c>
-      <c r="H34" t="n">
-        <v>44</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1700,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H35" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1735,13 +1745,13 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1770,14 +1780,12 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G37" t="n">
-        <v>26</v>
-      </c>
-      <c r="H37" t="n">
-        <v>46</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1807,16 +1815,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I38" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1846,20 +1854,18 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G39" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H39" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I39" t="n">
-        <v>61</v>
-      </c>
-      <c r="J39" t="n">
-        <v>62</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1887,23 +1893,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I40" t="n">
-        <v>65</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>12</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1930,20 +1932,18 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G41" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I41" t="n">
-        <v>58</v>
-      </c>
-      <c r="J41" t="n">
-        <v>62</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/judges_with_posters.xlsx
+++ b/data/judges_with_posters.xlsx
@@ -512,15 +512,9 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>43</v>
-      </c>
-      <c r="G2" t="n">
-        <v>67</v>
-      </c>
-      <c r="H2" t="n">
-        <v>48</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -547,12 +541,8 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>35</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -580,15 +570,9 @@
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="n">
-        <v>57</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26</v>
-      </c>
-      <c r="H4" t="n">
-        <v>58</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -617,24 +601,12 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>21</v>
-      </c>
-      <c r="H5" t="n">
-        <v>27</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49</v>
-      </c>
-      <c r="J5" t="n">
-        <v>38</v>
-      </c>
-      <c r="K5" t="n">
-        <v>50</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -658,15 +630,9 @@
       <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="n">
-        <v>39</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" t="n">
-        <v>34</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -695,21 +661,11 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>15</v>
-      </c>
-      <c r="G7" t="n">
-        <v>22</v>
-      </c>
-      <c r="H7" t="n">
-        <v>40</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60</v>
-      </c>
-      <c r="J7" t="n">
-        <v>64</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -734,15 +690,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>29</v>
-      </c>
-      <c r="G8" t="n">
-        <v>65</v>
-      </c>
-      <c r="H8" t="n">
-        <v>36</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -769,15 +719,9 @@
       <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18</v>
-      </c>
-      <c r="H9" t="n">
-        <v>40</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -806,24 +750,12 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>23</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>48</v>
-      </c>
-      <c r="K10" t="n">
-        <v>62</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -849,24 +781,12 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>11</v>
-      </c>
-      <c r="H11" t="n">
-        <v>13</v>
-      </c>
-      <c r="I11" t="n">
-        <v>17</v>
-      </c>
-      <c r="J11" t="n">
-        <v>61</v>
-      </c>
-      <c r="K11" t="n">
-        <v>28</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -890,15 +810,9 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
-        <v>19</v>
-      </c>
-      <c r="G12" t="n">
-        <v>45</v>
-      </c>
-      <c r="H12" t="n">
-        <v>66</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -925,15 +839,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>33</v>
-      </c>
-      <c r="H13" t="n">
-        <v>28</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -960,15 +868,9 @@
       <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>46</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -995,12 +897,8 @@
       <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
-        <v>63</v>
-      </c>
-      <c r="G15" t="n">
-        <v>38</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1028,12 +926,8 @@
       <c r="E16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="n">
-        <v>57</v>
-      </c>
-      <c r="G16" t="n">
-        <v>56</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1061,12 +955,8 @@
       <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
-        <v>52</v>
-      </c>
-      <c r="G17" t="n">
-        <v>64</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1094,15 +984,9 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>65</v>
-      </c>
-      <c r="G18" t="n">
-        <v>32</v>
-      </c>
-      <c r="H18" t="n">
-        <v>42</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1129,12 +1013,8 @@
       <c r="E19" t="n">
         <v>2</v>
       </c>
-      <c r="F19" t="n">
-        <v>51</v>
-      </c>
-      <c r="G19" t="n">
-        <v>44</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1162,12 +1042,8 @@
       <c r="E20" t="n">
         <v>2</v>
       </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-      <c r="G20" t="n">
-        <v>14</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1195,15 +1071,9 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
-        <v>11</v>
-      </c>
-      <c r="G21" t="n">
-        <v>13</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1230,15 +1100,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
-        <v>37</v>
-      </c>
-      <c r="G22" t="n">
-        <v>53</v>
-      </c>
-      <c r="H22" t="n">
-        <v>59</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1267,21 +1131,11 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>15</v>
-      </c>
-      <c r="G23" t="n">
-        <v>37</v>
-      </c>
-      <c r="H23" t="n">
-        <v>49</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>54</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1308,21 +1162,11 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
-      <c r="G24" t="n">
-        <v>41</v>
-      </c>
-      <c r="H24" t="n">
-        <v>43</v>
-      </c>
-      <c r="I24" t="n">
-        <v>59</v>
-      </c>
-      <c r="J24" t="n">
-        <v>62</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1349,21 +1193,11 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>41</v>
-      </c>
-      <c r="G25" t="n">
-        <v>53</v>
-      </c>
-      <c r="H25" t="n">
-        <v>32</v>
-      </c>
-      <c r="I25" t="n">
-        <v>34</v>
-      </c>
-      <c r="J25" t="n">
-        <v>42</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1390,21 +1224,11 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
-      <c r="G26" t="n">
-        <v>35</v>
-      </c>
-      <c r="H26" t="n">
-        <v>47</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>36</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1429,12 +1253,8 @@
       <c r="E27" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="n">
-        <v>19</v>
-      </c>
-      <c r="G27" t="n">
-        <v>24</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1462,12 +1282,8 @@
       <c r="E28" t="n">
         <v>2</v>
       </c>
-      <c r="F28" t="n">
-        <v>39</v>
-      </c>
-      <c r="G28" t="n">
-        <v>54</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1495,12 +1311,8 @@
       <c r="E29" t="n">
         <v>2</v>
       </c>
-      <c r="F29" t="n">
-        <v>12</v>
-      </c>
-      <c r="G29" t="n">
-        <v>66</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1528,12 +1340,8 @@
       <c r="E30" t="n">
         <v>2</v>
       </c>
-      <c r="F30" t="n">
-        <v>27</v>
-      </c>
-      <c r="G30" t="n">
-        <v>55</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1563,21 +1371,11 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>47</v>
-      </c>
-      <c r="G31" t="n">
-        <v>16</v>
-      </c>
-      <c r="H31" t="n">
-        <v>52</v>
-      </c>
-      <c r="I31" t="n">
-        <v>56</v>
-      </c>
-      <c r="J31" t="n">
-        <v>58</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1604,21 +1402,11 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>25</v>
-      </c>
-      <c r="G32" t="n">
-        <v>51</v>
-      </c>
-      <c r="H32" t="n">
-        <v>14</v>
-      </c>
-      <c r="I32" t="n">
-        <v>26</v>
-      </c>
-      <c r="J32" t="n">
-        <v>60</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1643,12 +1431,8 @@
       <c r="E33" t="n">
         <v>2</v>
       </c>
-      <c r="F33" t="n">
-        <v>21</v>
-      </c>
-      <c r="G33" t="n">
-        <v>25</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1676,12 +1460,8 @@
       <c r="E34" t="n">
         <v>2</v>
       </c>
-      <c r="F34" t="n">
-        <v>30</v>
-      </c>
-      <c r="G34" t="n">
-        <v>68</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1709,15 +1489,9 @@
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" t="n">
-        <v>17</v>
-      </c>
-      <c r="H35" t="n">
-        <v>61</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1744,15 +1518,9 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="n">
-        <v>67</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6</v>
-      </c>
-      <c r="H36" t="n">
-        <v>30</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1779,12 +1547,8 @@
       <c r="E37" t="n">
         <v>2</v>
       </c>
-      <c r="F37" t="n">
-        <v>29</v>
-      </c>
-      <c r="G37" t="n">
-        <v>55</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1814,18 +1578,10 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>9</v>
-      </c>
-      <c r="H38" t="n">
-        <v>31</v>
-      </c>
-      <c r="I38" t="n">
-        <v>10</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
     </row>
@@ -1853,18 +1609,10 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>31</v>
-      </c>
-      <c r="G39" t="n">
-        <v>63</v>
-      </c>
-      <c r="H39" t="n">
-        <v>50</v>
-      </c>
-      <c r="I39" t="n">
-        <v>68</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
     </row>
@@ -1892,18 +1640,10 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>8</v>
-      </c>
-      <c r="H40" t="n">
-        <v>18</v>
-      </c>
-      <c r="I40" t="n">
-        <v>46</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
     </row>
@@ -1931,18 +1671,10 @@
           <t>both</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>45</v>
-      </c>
-      <c r="G41" t="n">
-        <v>6</v>
-      </c>
-      <c r="H41" t="n">
-        <v>24</v>
-      </c>
-      <c r="I41" t="n">
-        <v>44</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
     </row>
